--- a/tests/testthat/write_sheet_by_name/out_file_one.xlsx
+++ b/tests/testthat/write_sheet_by_name/out_file_one.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="571">
   <si>
     <t>_row</t>
     <phoneticPr fontId="1"/>
@@ -866,6 +866,882 @@
   </si>
   <si>
     <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1590,20 +2466,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1613,20 +2489,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="130000"/>
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
+                <a:satMod val="130000"/>
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="135000"/>
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1637,8 +2513,8 @@
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
+              <a:satMod val="105000"/>
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -1704,46 +2580,40 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
                 <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="255000"/>
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="200000"/>
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1770,45 +2640,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>527</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>529</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>530</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="F1" t="s">
-        <v>313</v>
+        <v>532</v>
       </c>
       <c r="G1" t="s">
-        <v>314</v>
+        <v>533</v>
       </c>
       <c r="H1" t="s">
-        <v>315</v>
+        <v>534</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>535</v>
       </c>
       <c r="J1" t="s">
-        <v>317</v>
+        <v>536</v>
       </c>
       <c r="K1" t="s">
-        <v>318</v>
+        <v>537</v>
       </c>
       <c r="L1" t="s">
-        <v>319</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>539</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1846,7 +2716,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>540</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1884,7 +2754,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>541</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1922,7 +2792,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>542</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1960,7 +2830,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>543</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1998,7 +2868,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>544</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2036,7 +2906,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>545</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2074,7 +2944,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>546</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2112,7 +2982,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>547</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2150,7 +3020,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>548</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2188,7 +3058,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>549</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2226,7 +3096,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>550</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2264,7 +3134,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2302,7 +3172,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>552</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2340,7 +3210,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>553</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2378,7 +3248,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>554</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2416,7 +3286,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>555</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2454,7 +3324,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>556</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2492,7 +3362,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>557</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2530,7 +3400,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>558</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2568,7 +3438,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>559</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2606,7 +3476,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>560</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2644,7 +3514,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>561</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2682,7 +3552,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>562</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2720,7 +3590,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>563</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2758,7 +3628,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>564</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2796,7 +3666,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>346</v>
+        <v>565</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2834,7 +3704,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>566</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2872,7 +3742,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>348</v>
+        <v>567</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2910,7 +3780,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>568</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2948,7 +3818,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>569</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2986,7 +3856,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>351</v>
+        <v>570</v>
       </c>
       <c r="B33">
         <v>1</v>
